--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ShearF-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="ShearF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9939924303633213</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9768042872944713</v>
+      </c>
+      <c r="D16">
+        <v>1.096363831534633</v>
+      </c>
+      <c r="E16">
+        <v>0.9698176992801386</v>
+      </c>
+      <c r="F16">
+        <v>0.9768042872944713</v>
+      </c>
+      <c r="G16">
+        <v>1.051940079293056</v>
+      </c>
+      <c r="H16">
+        <v>0.9281321562220225</v>
+      </c>
+      <c r="I16">
+        <v>0.9681114896547558</v>
+      </c>
+      <c r="J16">
+        <v>1.096363831534633</v>
+      </c>
+      <c r="K16">
+        <v>1.033090765407386</v>
+      </c>
+      <c r="L16">
+        <v>1.004947526350928</v>
+      </c>
+      <c r="M16">
+        <v>0.9985282572131796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9768042872944713</v>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9308160000000016</v>
+        <v>0.9768042872944713</v>
       </c>
       <c r="D10">
-        <v>1.229623999999997</v>
+        <v>1.096363831534633</v>
       </c>
       <c r="E10">
-        <v>0.9445760000000007</v>
+        <v>0.9698176992801386</v>
       </c>
       <c r="F10">
-        <v>0.9308160000000016</v>
+        <v>0.9768042872944713</v>
       </c>
       <c r="G10">
-        <v>1.115643999999998</v>
+        <v>1.051940079293056</v>
       </c>
       <c r="H10">
-        <v>0.8412159999999985</v>
+        <v>0.9281321562220225</v>
       </c>
       <c r="I10">
-        <v>0.9393640000000009</v>
+        <v>0.9681114896547558</v>
       </c>
       <c r="J10">
-        <v>1.229623999999997</v>
+        <v>1.096363831534633</v>
       </c>
       <c r="K10">
-        <v>1.087099999999999</v>
+        <v>1.033090765407386</v>
       </c>
       <c r="L10">
-        <v>1.008958</v>
+        <v>1.004947526350928</v>
       </c>
       <c r="M10">
-        <v>1.000206666666666</v>
+        <v>0.9985282572131796</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.88</v>
+        <v>1.008172916509116</v>
       </c>
       <c r="D11">
-        <v>1.43</v>
+        <v>0.9365942791717188</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>1.010128961714119</v>
       </c>
       <c r="F11">
-        <v>0.88</v>
+        <v>1.008172916509116</v>
       </c>
       <c r="G11">
-        <v>1.2201375</v>
+        <v>0.9625041226885087</v>
       </c>
       <c r="H11">
-        <v>0.7</v>
+        <v>1.038974681995192</v>
       </c>
       <c r="I11">
-        <v>0.886949999999998</v>
+        <v>1.01006488521621</v>
       </c>
       <c r="J11">
-        <v>1.43</v>
+        <v>0.9365942791717188</v>
       </c>
       <c r="K11">
-        <v>1.165</v>
+        <v>0.9733616204429187</v>
       </c>
       <c r="L11">
-        <v>1.0225</v>
+        <v>0.9907672684760171</v>
       </c>
       <c r="M11">
-        <v>1.002847916666666</v>
+        <v>0.9944066412158105</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.927918486528003</v>
+        <v>1.008064707005279</v>
       </c>
       <c r="D12">
-        <v>1.247429201305596</v>
+        <v>0.9367822621088273</v>
       </c>
       <c r="E12">
-        <v>0.9392681383936002</v>
+        <v>1.010100196351669</v>
       </c>
       <c r="F12">
-        <v>0.927918486528003</v>
+        <v>1.008064707005279</v>
       </c>
       <c r="G12">
-        <v>1.125670495027198</v>
+        <v>0.9626062663745961</v>
       </c>
       <c r="H12">
-        <v>0.8259849687039992</v>
+        <v>1.038937734566679</v>
       </c>
       <c r="I12">
-        <v>0.9333828984832019</v>
+        <v>1.010057733606943</v>
       </c>
       <c r="J12">
-        <v>1.247429201305596</v>
+        <v>0.9367822621088273</v>
       </c>
       <c r="K12">
-        <v>1.093348669849598</v>
+        <v>0.9734412292302483</v>
       </c>
       <c r="L12">
-        <v>1.010633578188801</v>
+        <v>0.9907529681177638</v>
       </c>
       <c r="M12">
-        <v>0.9999423647402663</v>
+        <v>0.994424816668999</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9955786731384261</v>
+        <v>1.008155204592937</v>
       </c>
       <c r="D13">
-        <v>0.9945839470496237</v>
+        <v>0.9366666850044614</v>
       </c>
       <c r="E13">
-        <v>0.9942707571191175</v>
+        <v>1.010096316762488</v>
       </c>
       <c r="F13">
-        <v>0.9955786731384261</v>
+        <v>1.008155204592937</v>
       </c>
       <c r="G13">
-        <v>0.9956138503312434</v>
+        <v>0.9625647262216147</v>
       </c>
       <c r="H13">
-        <v>0.9945141783164398</v>
+        <v>1.038988331245328</v>
       </c>
       <c r="I13">
-        <v>0.9951755457087746</v>
+        <v>1.010057260092755</v>
       </c>
       <c r="J13">
-        <v>0.9945839470496237</v>
+        <v>0.9366666850044614</v>
       </c>
       <c r="K13">
-        <v>0.9944273520843706</v>
+        <v>0.9733815008834747</v>
       </c>
       <c r="L13">
-        <v>0.9950030126113983</v>
+        <v>0.9907683527382056</v>
       </c>
       <c r="M13">
-        <v>0.9949561586106043</v>
+        <v>0.9944214206532641</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000366147885188</v>
+        <v>0.9308160000000016</v>
       </c>
       <c r="D14">
-        <v>0.9805573723740559</v>
+        <v>1.229623999999997</v>
       </c>
       <c r="E14">
-        <v>0.997206049509073</v>
+        <v>0.9445760000000007</v>
       </c>
       <c r="F14">
-        <v>1.000366147885188</v>
+        <v>0.9308160000000016</v>
       </c>
       <c r="G14">
-        <v>0.988437970156402</v>
+        <v>1.115643999999998</v>
       </c>
       <c r="H14">
-        <v>1.001655536556028</v>
+        <v>0.8412159999999985</v>
       </c>
       <c r="I14">
-        <v>0.9978655400354489</v>
+        <v>0.9393640000000009</v>
       </c>
       <c r="J14">
-        <v>0.9805573723740559</v>
+        <v>1.229623999999997</v>
       </c>
       <c r="K14">
-        <v>0.9888817109415644</v>
+        <v>1.087099999999999</v>
       </c>
       <c r="L14">
-        <v>0.9946239294133763</v>
+        <v>1.008958</v>
       </c>
       <c r="M14">
-        <v>0.9943481027526994</v>
+        <v>1.000206666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.005059031247423</v>
+        <v>0.88</v>
       </c>
       <c r="D15">
-        <v>0.9504993130193182</v>
+        <v>1.43</v>
       </c>
       <c r="E15">
-        <v>1.005273107556214</v>
+        <v>0.9</v>
       </c>
       <c r="F15">
-        <v>1.005059031247423</v>
+        <v>0.88</v>
       </c>
       <c r="G15">
-        <v>0.9697054349978871</v>
+        <v>1.2201375</v>
       </c>
       <c r="H15">
-        <v>1.025907387073047</v>
+        <v>0.7</v>
       </c>
       <c r="I15">
-        <v>1.007510308286038</v>
+        <v>0.886949999999998</v>
       </c>
       <c r="J15">
-        <v>0.9504993130193182</v>
+        <v>1.43</v>
       </c>
       <c r="K15">
-        <v>0.9778862102877663</v>
+        <v>1.165</v>
       </c>
       <c r="L15">
-        <v>0.9914726207675947</v>
+        <v>1.0225</v>
       </c>
       <c r="M15">
-        <v>0.9939924303633213</v>
+        <v>1.002847916666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9768042872944713</v>
+        <v>0.927918486528003</v>
       </c>
       <c r="D16">
-        <v>1.096363831534633</v>
+        <v>1.247429201305596</v>
       </c>
       <c r="E16">
-        <v>0.9698176992801386</v>
+        <v>0.9392681383936002</v>
       </c>
       <c r="F16">
-        <v>0.9768042872944713</v>
+        <v>0.927918486528003</v>
       </c>
       <c r="G16">
-        <v>1.051940079293056</v>
+        <v>1.125670495027198</v>
       </c>
       <c r="H16">
-        <v>0.9281321562220225</v>
+        <v>0.8259849687039992</v>
       </c>
       <c r="I16">
-        <v>0.9681114896547558</v>
+        <v>0.9333828984832019</v>
       </c>
       <c r="J16">
-        <v>1.096363831534633</v>
+        <v>1.247429201305596</v>
       </c>
       <c r="K16">
-        <v>1.033090765407386</v>
+        <v>1.093348669849598</v>
       </c>
       <c r="L16">
-        <v>1.004947526350928</v>
+        <v>1.010633578188801</v>
       </c>
       <c r="M16">
-        <v>0.9985282572131796</v>
+        <v>0.9999423647402663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9955786731384261</v>
+      </c>
+      <c r="D17">
+        <v>0.9945839470496237</v>
+      </c>
+      <c r="E17">
+        <v>0.9942707571191175</v>
+      </c>
+      <c r="F17">
+        <v>0.9955786731384261</v>
+      </c>
+      <c r="G17">
+        <v>0.9956138503312434</v>
+      </c>
+      <c r="H17">
+        <v>0.9945141783164398</v>
+      </c>
+      <c r="I17">
+        <v>0.9951755457087746</v>
+      </c>
+      <c r="J17">
+        <v>0.9945839470496237</v>
+      </c>
+      <c r="K17">
+        <v>0.9944273520843706</v>
+      </c>
+      <c r="L17">
+        <v>0.9950030126113983</v>
+      </c>
+      <c r="M17">
+        <v>0.9949561586106043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.000366147885188</v>
+      </c>
+      <c r="D18">
+        <v>0.9805573723740559</v>
+      </c>
+      <c r="E18">
+        <v>0.997206049509073</v>
+      </c>
+      <c r="F18">
+        <v>1.000366147885188</v>
+      </c>
+      <c r="G18">
+        <v>0.988437970156402</v>
+      </c>
+      <c r="H18">
+        <v>1.001655536556028</v>
+      </c>
+      <c r="I18">
+        <v>0.9978655400354489</v>
+      </c>
+      <c r="J18">
+        <v>0.9805573723740559</v>
+      </c>
+      <c r="K18">
+        <v>0.9888817109415644</v>
+      </c>
+      <c r="L18">
+        <v>0.9946239294133763</v>
+      </c>
+      <c r="M18">
+        <v>0.9943481027526994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.005059031247423</v>
+      </c>
+      <c r="D19">
+        <v>0.9504993130193182</v>
+      </c>
+      <c r="E19">
+        <v>1.005273107556214</v>
+      </c>
+      <c r="F19">
+        <v>1.005059031247423</v>
+      </c>
+      <c r="G19">
+        <v>0.9697054349978871</v>
+      </c>
+      <c r="H19">
+        <v>1.025907387073047</v>
+      </c>
+      <c r="I19">
+        <v>1.007510308286038</v>
+      </c>
+      <c r="J19">
+        <v>0.9504993130193182</v>
+      </c>
+      <c r="K19">
+        <v>0.9778862102877663</v>
+      </c>
+      <c r="L19">
+        <v>0.9914726207675947</v>
+      </c>
+      <c r="M19">
+        <v>0.9939924303633213</v>
       </c>
     </row>
   </sheetData>
